--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Timor_oriental/Pandémie_de_Covid-19_au_Timor_oriental.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Timor_oriental/Pandémie_de_Covid-19_au_Timor_oriental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Timor oriental démarre officiellement le 21 mars 2020. À la date du 5 novembre 2022, le bilan est de 138 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Février 2020
-Le 10 février, l'entrée des non-ressortissants qui s'étaient rendus en Chine au cours des 4 dernières semaines a été restreinte. Ceux qui avaient visité le Hubei étaient interdits, tandis que ceux qui avaient visité d'autres régions de Chine pouvaient entrer avec un certificat médical valide.
-Le 21 février, des étudiants qui étudiaient à Wuhan sont arrivés au Timor oriental après une période de quarantaine en Nouvelle-Zélande.
-Mars 2020
-Le 19 mars, le Timor oriental a fermé ses frontières avec l'Indonésie à titre préventif.
-Le 21 mars, le Timor oriental a confirmé son premier cas de Covid-19 importé. L'endroit où il a commencé est inconnu.
-À la suite de cela, les écoles ont été suspendues le 22 mars et l'église catholique a annulé la messe. L'état d'urgence a été déclaré et les rassemblements publics étaient limités à 5 personnes, tandis que toutes les arrivées internationales étaient soumises à une quarantaine obligatoire.
-Avril 2020
-Le 6 avril, le Parlement a approuvé des mesures urgentes pour faire face à la pandémie.
-Le 9 avril, un deuxième cas a été confirmé: une personne entrée dans le pays de l'autre côté de la frontière terrestre avec l'Indonésie. Le premier cas, confirmé le 21 mars, est désormais guéri.
-Mai 2020
-Le 15 mai, le Timor oriental a confirmé le rétablissement de son dernier cas confirmé. Jusqu'au 31 mai, le pays n'a reçu aucun nouveau cas confirmé.
-Septembre 2022
-Le 15 septembre, le palier des 100 morts est atteint[2].</t>
+          <t>Février 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 10 février, l'entrée des non-ressortissants qui s'étaient rendus en Chine au cours des 4 dernières semaines a été restreinte. Ceux qui avaient visité le Hubei étaient interdits, tandis que ceux qui avaient visité d'autres régions de Chine pouvaient entrer avec un certificat médical valide.
+Le 21 février, des étudiants qui étudiaient à Wuhan sont arrivés au Timor oriental après une période de quarantaine en Nouvelle-Zélande.</t>
         </is>
       </c>
     </row>
@@ -537,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +558,159 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le 19 mars, le Timor oriental a fermé ses frontières avec l'Indonésie à titre préventif.
+Le 21 mars, le Timor oriental a confirmé son premier cas de Covid-19 importé. L'endroit où il a commencé est inconnu.
+À la suite de cela, les écoles ont été suspendues le 22 mars et l'église catholique a annulé la messe. L'état d'urgence a été déclaré et les rassemblements publics étaient limités à 5 personnes, tandis que toutes les arrivées internationales étaient soumises à une quarantaine obligatoire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le 6 avril, le Parlement a approuvé des mesures urgentes pour faire face à la pandémie.
+Le 9 avril, un deuxième cas a été confirmé: une personne entrée dans le pays de l'autre côté de la frontière terrestre avec l'Indonésie. Le premier cas, confirmé le 21 mars, est désormais guéri.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le 15 mai, le Timor oriental a confirmé le rétablissement de son dernier cas confirmé. Jusqu'au 31 mai, le pays n'a reçu aucun nouveau cas confirmé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Septembre 2022</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le 15 septembre, le palier des 100 morts est atteint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Timor_oriental</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
